--- a/cases/case_user.xlsx
+++ b/cases/case_user.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,95 +26,133 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>headers信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口检查点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库期望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/create_user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户，正常请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户，请求方式为get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户，添加cookie信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建用户，师傅邀请创建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页，正常请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试玩赚钱列表，正常请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主页，用户没有领取金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:select * from zhuanqian.user where id = ${payload.uid} 
+b:select * from zhuanqian_1.user where id = ${payload.uid}
+c:select * from zhuanqian.user_info where user_id=${payload.uid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s5/dashboard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试人员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口检查点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql语句</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库期望</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/create_user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s5/dashboard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/s4k/subtask.list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户，正常请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户，请求方式为get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
+    <t>数据准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/s4/lite.subtask.list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,85 +164,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>post</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户，添加cookie信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建用户，师傅邀请创建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页，正常请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>试玩赚钱列表，正常请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主页，用户没有领取金币</t>
+    <t>err_code=405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0
+payload.tasks=[id=261567]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0
+err_msg=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>payload.level_info.next_level_more_coin=1
+payload.reward=5
+payload.invalid_apprentice_num=0
+payload.shoutu_v5_3_open=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a:len=1,create_reward=1
+b:len=1
+c:len=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0
+payload.first_claim=1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>主页，用户领取金币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0;err_msg=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>err_code=0;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;payload.level_info.next_level_more_coin=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a：select * from admin
-b:select * from t_user_verify</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a:0
-b:6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"a":"b"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -213,7 +209,33 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>payload.level_info.next_level_more_coin=0</t>
+    <t>$payload.uid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>err_code=0
+payload.first_claim=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "apiHost":"/s5/reward.coin.claim.today",
+    "method":"post",
+    "apiParams":"",
+    "apiHeaders":""
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -274,9 +296,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -287,11 +308,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,279 +632,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49.125" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="13.25" customWidth="1"/>
-    <col min="9" max="9" width="20.375" customWidth="1"/>
-    <col min="10" max="10" width="22.625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.625" customWidth="1"/>
-    <col min="12" max="12" width="22.625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="49.125" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="20.375" customWidth="1"/>
+    <col min="11" max="11" width="22.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="22.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" s="11" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="J1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="135">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="6" customFormat="1" ht="94.5">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" t="s">
-        <v>7</v>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="14"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.5">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="6"/>
-      <c r="M2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="18">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="6"/>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.5">
+    <row r="4" spans="1:15" ht="42">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
+      <c r="E4" s="3"/>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5">
+    <row r="5" spans="1:15" ht="28.5">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5">
+    <row r="6" spans="1:15" ht="28.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>36</v>
+      <c r="N6" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.5">
+    <row r="7" spans="1:15" ht="28.5">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="28.5">
+    <row r="8" spans="1:15" ht="28.5">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" t="s">
-        <v>36</v>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="55.5">
+    <row r="9" spans="1:15" ht="69" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" t="s">
-        <v>43</v>
+      <c r="L9" s="1"/>
+      <c r="M9" s="5"/>
+      <c r="N9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
